--- a/Modems_board/fab/Router_Modems-bottom-pos.xlsx
+++ b/Modems_board/fab/Router_Modems-bottom-pos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="166">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -497,6 +497,27 @@
   </si>
   <si>
     <t xml:space="preserve">-15.800000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.662500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.612500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.712500</t>
   </si>
 </sst>
 </file>
@@ -511,6 +532,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -592,13 +614,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.46"/>
@@ -1576,6 +1598,74 @@
         <v>9</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
